--- a/Saved_file/Giang/2026_01/sap_data.xlsx
+++ b/Saved_file/Giang/2026_01/sap_data.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,34 +487,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD0001</t>
+          <t>ORD010001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST4760</t>
+          <t>CUST4865</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37791711</v>
+        <v>50276000</v>
       </c>
       <c r="E2" t="n">
-        <v>7165813</v>
+        <v>12890619</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,46 +529,46 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD0002</t>
+          <t>ORD010002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST3477</t>
+          <t>CUST9010</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13912817</v>
+        <v>55233090</v>
       </c>
       <c r="E3" t="n">
-        <v>4108385</v>
+        <v>16273918</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -595,34 +595,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD0003</t>
+          <t>ORD010003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST5378</t>
+          <t>CUST3746</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21933594</v>
+        <v>38405947</v>
       </c>
       <c r="E4" t="n">
-        <v>6402294</v>
+        <v>10474590</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD0004</t>
+          <t>ORD010004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST5756</t>
+          <t>CUST5999</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15821288</v>
+        <v>51422644</v>
       </c>
       <c r="E5" t="n">
-        <v>2158200</v>
+        <v>14317656</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -696,41 +696,41 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD0005</t>
+          <t>ORD010005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST3138</t>
+          <t>CUST2588</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22490889</v>
+        <v>53069360</v>
       </c>
       <c r="E6" t="n">
-        <v>4245049</v>
+        <v>17113484</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -745,46 +745,46 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD0006</t>
+          <t>ORD010006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST1089</t>
+          <t>CUST8282</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12252094</v>
+        <v>33800829</v>
       </c>
       <c r="E7" t="n">
-        <v>3263353</v>
+        <v>8928717</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -804,37 +804,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD0007</t>
+          <t>ORD010007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1037</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17099235</v>
+        <v>50774758</v>
       </c>
       <c r="E8" t="n">
-        <v>4886369</v>
+        <v>16171320</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -848,12 +848,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -865,34 +865,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD0008</t>
+          <t>ORD010008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST3736</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42722140</v>
+        <v>43302813</v>
       </c>
       <c r="E9" t="n">
-        <v>6744628</v>
+        <v>10936916</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -919,30 +919,30 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD0009</t>
+          <t>ORD010009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST8445</t>
+          <t>CUST2266</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32145442</v>
+        <v>51831219</v>
       </c>
       <c r="E10" t="n">
-        <v>3793979</v>
+        <v>16748678</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,51 +956,51 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD0010</t>
+          <t>ORD010010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST8710</t>
+          <t>CUST3746</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35332882</v>
+        <v>57288664</v>
       </c>
       <c r="E11" t="n">
-        <v>4060611</v>
+        <v>18892934</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,51 +1010,51 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD0011</t>
+          <t>ORD010011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6463</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28298246</v>
+        <v>32937258</v>
       </c>
       <c r="E12" t="n">
-        <v>3133236</v>
+        <v>9686796</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1069,42 +1069,42 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD0012</t>
+          <t>ORD010012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3743</t>
+          <t>CUST7954</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41108029</v>
+        <v>55710101</v>
       </c>
       <c r="E13" t="n">
-        <v>5217738</v>
+        <v>13928386</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1128,41 +1128,41 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD0013</t>
+          <t>ORD010013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST2211</t>
+          <t>CUST4910</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36156777</v>
+        <v>53429412</v>
       </c>
       <c r="E14" t="n">
-        <v>9842147</v>
+        <v>15717580</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1177,42 +1177,42 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD0014</t>
+          <t>ORD010014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST5986</t>
+          <t>CUST1613</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>44909588</v>
+        <v>42510187</v>
       </c>
       <c r="E15" t="n">
-        <v>12167714</v>
+        <v>11286093</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1231,46 +1231,46 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD0015</t>
+          <t>ORD010015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST3528</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26996543</v>
+        <v>32941596</v>
       </c>
       <c r="E16" t="n">
-        <v>4693224</v>
+        <v>8330475</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD0016</t>
+          <t>ORD010016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST5279</t>
+          <t>CUST9427</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29925972</v>
+        <v>55354942</v>
       </c>
       <c r="E17" t="n">
-        <v>7278768</v>
+        <v>15863968</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1334,51 +1334,51 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD0017</t>
+          <t>ORD010017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST5476</t>
+          <t>CUST3702</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15856560</v>
+        <v>51788424</v>
       </c>
       <c r="E18" t="n">
-        <v>2827687</v>
+        <v>16372569</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1405,30 +1405,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD0018</t>
+          <t>ORD010018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST2830</t>
+          <t>CUST6544</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36299762</v>
+        <v>56463355</v>
       </c>
       <c r="E19" t="n">
-        <v>4707571</v>
+        <v>16888444</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,24 +1442,24 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD0019</t>
+          <t>ORD010019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST6760</t>
+          <t>CUST7279</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31527823</v>
+        <v>39532993</v>
       </c>
       <c r="E20" t="n">
-        <v>3170652</v>
+        <v>12769326</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1501,46 +1501,46 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD0020</t>
+          <t>ORD010020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5313</t>
+          <t>CUST9010</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33803422</v>
+        <v>35336331</v>
       </c>
       <c r="E21" t="n">
-        <v>8411645</v>
+        <v>9558161</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1567,30 +1567,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD0021</t>
+          <t>ORD010021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5005</t>
+          <t>CUST4410</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34308703</v>
+        <v>59420451</v>
       </c>
       <c r="E22" t="n">
-        <v>5041362</v>
+        <v>17296041</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1604,51 +1604,51 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD0022</t>
+          <t>ORD010022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1721</t>
+          <t>CUST6421</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16938360</v>
+        <v>46092178</v>
       </c>
       <c r="E23" t="n">
-        <v>3781760</v>
+        <v>11925848</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1675,34 +1675,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD0023</t>
+          <t>ORD010023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST8286</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29904105</v>
+        <v>50371069</v>
       </c>
       <c r="E24" t="n">
-        <v>5366031</v>
+        <v>12912002</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,51 +1712,51 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD0024</t>
+          <t>ORD010024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3066</t>
+          <t>CUST7279</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43136072</v>
+        <v>43579649</v>
       </c>
       <c r="E25" t="n">
-        <v>5893913</v>
+        <v>14878643</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,51 +1766,51 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD0025</t>
+          <t>ORD010025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST1399</t>
+          <t>CUST1452</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14792201</v>
+        <v>44412878</v>
       </c>
       <c r="E26" t="n">
-        <v>1899538</v>
+        <v>13981533</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1830,41 +1830,41 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD0026</t>
+          <t>ORD010026</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST8436</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48360224</v>
+        <v>30424323</v>
       </c>
       <c r="E27" t="n">
-        <v>8874520</v>
+        <v>7883550</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,51 +1874,51 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD0027</t>
+          <t>ORD010027</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST7547</t>
+          <t>CUST5009</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43514770</v>
+        <v>38549229</v>
       </c>
       <c r="E28" t="n">
-        <v>7839313</v>
+        <v>10884540</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,51 +1928,51 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD0028</t>
+          <t>ORD010028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST2026</t>
+          <t>CUST7793</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43621023</v>
+        <v>38678151</v>
       </c>
       <c r="E29" t="n">
-        <v>7790675</v>
+        <v>10775659</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,51 +1982,51 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD0029</t>
+          <t>ORD010029</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST1778</t>
+          <t>CUST5021</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>16805547</v>
+        <v>56512379</v>
       </c>
       <c r="E30" t="n">
-        <v>3031877</v>
+        <v>19295953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,51 +2036,51 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD0030</t>
+          <t>ORD010030</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST6302</t>
+          <t>CUST7279</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>34396812</v>
+        <v>30587036</v>
       </c>
       <c r="E31" t="n">
-        <v>9022219</v>
+        <v>8075489</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,51 +2090,51 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD0031</t>
+          <t>ORD010031</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST6627</t>
+          <t>CUST7954</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25910632</v>
+        <v>51676839</v>
       </c>
       <c r="E32" t="n">
-        <v>6239397</v>
+        <v>16167803</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,41 +2154,41 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD0032</t>
+          <t>ORD010032</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST6632</t>
+          <t>CUST3079</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13857647</v>
+        <v>39313456</v>
       </c>
       <c r="E33" t="n">
-        <v>3686786</v>
+        <v>12434852</v>
       </c>
       <c r="F33" t="n">
         <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2215,34 +2215,34 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD0033</t>
+          <t>ORD010033</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST1559</t>
+          <t>CUST2085</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>42887360</v>
+        <v>31885487</v>
       </c>
       <c r="E34" t="n">
-        <v>12509751</v>
+        <v>9355587</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2262,41 +2262,41 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD0034</t>
+          <t>ORD010034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST2590</t>
+          <t>CUST1613</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15523304</v>
+        <v>54752231</v>
       </c>
       <c r="E35" t="n">
-        <v>3843690</v>
+        <v>13869624</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2323,34 +2323,34 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD0035</t>
+          <t>ORD010035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST9969</t>
+          <t>CUST9615</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10031768</v>
+        <v>59416570</v>
       </c>
       <c r="E36" t="n">
-        <v>1679707</v>
+        <v>17500657</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,47 +2360,47 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD0036</t>
+          <t>ORD010036</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3373</t>
+          <t>CUST1141</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19734806</v>
+        <v>52618229</v>
       </c>
       <c r="E37" t="n">
-        <v>4814636</v>
+        <v>14111269</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2419,46 +2419,46 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD0037</t>
+          <t>ORD010037</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST8183</t>
+          <t>CUST3007</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26457402</v>
+        <v>34620966</v>
       </c>
       <c r="E38" t="n">
-        <v>3742790</v>
+        <v>10123605</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,51 +2468,51 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD0038</t>
+          <t>ORD010038</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST2870</t>
+          <t>CUST8589</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24838132</v>
+        <v>51157446</v>
       </c>
       <c r="E39" t="n">
-        <v>4269688</v>
+        <v>13776625</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,51 +2522,51 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD0039</t>
+          <t>ORD010039</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST6063</t>
+          <t>CUST9993</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>36709629</v>
+        <v>44579922</v>
       </c>
       <c r="E40" t="n">
-        <v>7886316</v>
+        <v>15094868</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,51 +2576,51 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD0040</t>
+          <t>ORD010040</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST2270</t>
+          <t>CUST4737</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15732756</v>
+        <v>52862894</v>
       </c>
       <c r="E41" t="n">
-        <v>4683602</v>
+        <v>14057581</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,51 +2630,51 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD0041</t>
+          <t>ORD010041</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST2692</t>
+          <t>CUST2016</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47125758</v>
+        <v>54285937</v>
       </c>
       <c r="E42" t="n">
-        <v>13531657</v>
+        <v>14885046</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2701,34 +2701,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD0042</t>
+          <t>ORD010042</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST8233</t>
+          <t>CUST2016</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16075499</v>
+        <v>49253255</v>
       </c>
       <c r="E43" t="n">
-        <v>2375648</v>
+        <v>12970055</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2755,34 +2755,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD0043</t>
+          <t>ORD010043</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST3052</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30760285</v>
+        <v>31683654</v>
       </c>
       <c r="E44" t="n">
-        <v>7373722</v>
+        <v>9199490</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,47 +2792,47 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD0044</t>
+          <t>ORD010044</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST1795</t>
+          <t>CUST8282</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16004450</v>
+        <v>36018307</v>
       </c>
       <c r="E45" t="n">
-        <v>4204451</v>
+        <v>10326092</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2863,30 +2863,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD0045</t>
+          <t>ORD010045</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST5187</t>
+          <t>CUST4410</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>33579630</v>
+        <v>44316752</v>
       </c>
       <c r="E46" t="n">
-        <v>5112644</v>
+        <v>11440934</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2910,37 +2910,37 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD0046</t>
+          <t>ORD010046</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST8132</t>
+          <t>CUST9263</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>42247461</v>
+        <v>44463168</v>
       </c>
       <c r="E47" t="n">
-        <v>10160607</v>
+        <v>14317840</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,12 +2954,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2971,34 +2971,34 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD0047</t>
+          <t>ORD010047</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST1872</t>
+          <t>CUST9263</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>45404731</v>
+        <v>38645500</v>
       </c>
       <c r="E48" t="n">
-        <v>11351853</v>
+        <v>10847596</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3013,42 +3013,42 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD0048</t>
+          <t>ORD010048</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2776</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28967085</v>
+        <v>34238782</v>
       </c>
       <c r="E49" t="n">
-        <v>5391853</v>
+        <v>8623832</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3067,46 +3067,46 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD0049</t>
+          <t>ORD010049</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST8409</t>
+          <t>CUST9263</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>33129586</v>
+        <v>30151915</v>
       </c>
       <c r="E50" t="n">
-        <v>6985714</v>
+        <v>8708980</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3133,34 +3133,34 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD0050</t>
+          <t>ORD010050</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST9968</t>
+          <t>CUST4746</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23862244</v>
+        <v>51014977</v>
       </c>
       <c r="E51" t="n">
-        <v>5550113</v>
+        <v>17385094</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,51 +3170,51 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD0051</t>
+          <t>ORD010051</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST1477</t>
+          <t>CUST8271</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21276597</v>
+        <v>57278235</v>
       </c>
       <c r="E52" t="n">
-        <v>3429060</v>
+        <v>16848637</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3241,30 +3241,30 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD0052</t>
+          <t>ORD010052</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1262</t>
+          <t>CUST1613</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>11299993</v>
+        <v>42957696</v>
       </c>
       <c r="E53" t="n">
-        <v>2109020</v>
+        <v>14721717</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3295,34 +3295,34 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD0053</t>
+          <t>ORD010053</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST4690</t>
+          <t>CUST2101</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>37802131</v>
+        <v>46056395</v>
       </c>
       <c r="E54" t="n">
-        <v>4212200</v>
+        <v>13967035</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3337,46 +3337,46 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD0054</t>
+          <t>ORD010054</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5908</t>
+          <t>CUST9993</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>44622087</v>
+        <v>45672558</v>
       </c>
       <c r="E55" t="n">
-        <v>11591993</v>
+        <v>11770347</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3391,46 +3391,46 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD0055</t>
+          <t>ORD010055</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST8992</t>
+          <t>CUST9010</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30334783</v>
+        <v>59555807</v>
       </c>
       <c r="E56" t="n">
-        <v>5379179</v>
+        <v>17238658</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,51 +3440,51 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD0056</t>
+          <t>ORD010056</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST9654</t>
+          <t>CUST2101</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15704342</v>
+        <v>35469083</v>
       </c>
       <c r="E57" t="n">
-        <v>3427759</v>
+        <v>10627774</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3504,41 +3504,41 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD0057</t>
+          <t>ORD010057</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST8151</t>
+          <t>CUST7926</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>47998613</v>
+        <v>55794897</v>
       </c>
       <c r="E58" t="n">
-        <v>8505983</v>
+        <v>15299592</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,46 +3553,46 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD0058</t>
+          <t>ORD010058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST3452</t>
+          <t>CUST2588</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>28518007</v>
+        <v>59757183</v>
       </c>
       <c r="E59" t="n">
-        <v>4715216</v>
+        <v>20210385</v>
       </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,51 +3602,51 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD0059</t>
+          <t>ORD010059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST8861</t>
+          <t>CUST2101</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>16009654</v>
+        <v>45436722</v>
       </c>
       <c r="E60" t="n">
-        <v>2131506</v>
+        <v>14830073</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3666,41 +3666,41 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD0060</t>
+          <t>ORD010060</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST9447</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>15504930</v>
+        <v>32042786</v>
       </c>
       <c r="E61" t="n">
-        <v>2138578</v>
+        <v>10792946</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,46 +3715,46 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD0061</t>
+          <t>ORD010061</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST6546</t>
+          <t>CUST7279</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33344047</v>
+        <v>43302741</v>
       </c>
       <c r="E62" t="n">
-        <v>4959261</v>
+        <v>13247901</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3764,47 +3764,47 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD0062</t>
+          <t>ORD010062</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1241</t>
+          <t>CUST8539</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>28507228</v>
+        <v>58353187</v>
       </c>
       <c r="E63" t="n">
-        <v>6771738</v>
+        <v>16870760</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,41 +3828,41 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD0063</t>
+          <t>ORD010063</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST4501</t>
+          <t>CUST3799</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>46808516</v>
+        <v>31643728</v>
       </c>
       <c r="E64" t="n">
-        <v>5181260</v>
+        <v>9423895</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3882,41 +3882,41 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD0064</t>
+          <t>ORD010064</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST7134</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>37716190</v>
+        <v>35280095</v>
       </c>
       <c r="E65" t="n">
-        <v>7001381</v>
+        <v>10795396</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3931,46 +3931,46 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD0065</t>
+          <t>ORD010065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST4402</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>24634180</v>
+        <v>39674575</v>
       </c>
       <c r="E66" t="n">
-        <v>5460595</v>
+        <v>13364852</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,47 +3980,47 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD0066</t>
+          <t>ORD010066</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST5103</t>
+          <t>CUST8445</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>40048803</v>
+        <v>36059598</v>
       </c>
       <c r="E67" t="n">
-        <v>5367399</v>
+        <v>10016104</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,51 +4034,51 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD0067</t>
+          <t>ORD010067</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST6840</t>
+          <t>CUST5960</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>30274819</v>
+        <v>58908880</v>
       </c>
       <c r="E68" t="n">
-        <v>3742706</v>
+        <v>16694071</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,51 +4088,51 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD0068</t>
+          <t>ORD010068</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST7273</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>17483799</v>
+        <v>31082364</v>
       </c>
       <c r="E69" t="n">
-        <v>4916857</v>
+        <v>8032048</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,51 +4142,51 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD0069</t>
+          <t>ORD010069</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST5339</t>
+          <t>CUST9619</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17645547</v>
+        <v>50771570</v>
       </c>
       <c r="E70" t="n">
-        <v>3704528</v>
+        <v>17389246</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4201,42 +4201,42 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD0070</t>
+          <t>ORD010070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST2085</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>32203810</v>
+        <v>52451398</v>
       </c>
       <c r="E71" t="n">
-        <v>5566209</v>
+        <v>15958939</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4250,51 +4250,51 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD0071</t>
+          <t>ORD010071</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9667</t>
+          <t>CUST5999</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>42661958</v>
+        <v>45484134</v>
       </c>
       <c r="E72" t="n">
-        <v>7516876</v>
+        <v>11380301</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4309,46 +4309,46 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD0072</t>
+          <t>ORD010072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST5098</t>
+          <t>CUST3746</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>24715467</v>
+        <v>37806289</v>
       </c>
       <c r="E73" t="n">
-        <v>5252623</v>
+        <v>12585485</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,51 +4358,51 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD0073</t>
+          <t>ORD010073</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST5466</t>
+          <t>CUST4204</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>28914824</v>
+        <v>34834164</v>
       </c>
       <c r="E74" t="n">
-        <v>4869110</v>
+        <v>10111929</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4422,41 +4422,41 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD0074</t>
+          <t>ORD010074</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST1778</t>
+          <t>CUST7793</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>28273453</v>
+        <v>46624739</v>
       </c>
       <c r="E75" t="n">
-        <v>6960338</v>
+        <v>13462104</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4466,47 +4466,47 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD0075</t>
+          <t>ORD010075</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST3749</t>
+          <t>CUST1141</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>24044089</v>
+        <v>30458442</v>
       </c>
       <c r="E76" t="n">
-        <v>6012533</v>
+        <v>8645470</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4525,42 +4525,42 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD0076</t>
+          <t>ORD010076</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST6959</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>49609861</v>
+        <v>59130650</v>
       </c>
       <c r="E77" t="n">
-        <v>8107219</v>
+        <v>16135382</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4579,46 +4579,46 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD0077</t>
+          <t>ORD010077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST2548</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>36880371</v>
+        <v>38835443</v>
       </c>
       <c r="E78" t="n">
-        <v>7951714</v>
+        <v>11702500</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4645,34 +4645,34 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD0078</t>
+          <t>ORD010078</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST8201</t>
+          <t>CUST3799</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10501709</v>
+        <v>42686568</v>
       </c>
       <c r="E79" t="n">
-        <v>1066293</v>
+        <v>11445963</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,47 +4682,47 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD0079</t>
+          <t>ORD010079</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST4724</t>
+          <t>CUST5145</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>45494661</v>
+        <v>40561540</v>
       </c>
       <c r="E80" t="n">
-        <v>11668685</v>
+        <v>12708358</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,41 +4746,41 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD0080</t>
+          <t>ORD010080</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST4164</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>27246289</v>
+        <v>46834918</v>
       </c>
       <c r="E81" t="n">
-        <v>5725713</v>
+        <v>14508885</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4807,30 +4807,30 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD0081</t>
+          <t>ORD010081</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST5849</t>
+          <t>CUST8445</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>42203827</v>
+        <v>42468816</v>
       </c>
       <c r="E82" t="n">
-        <v>7294101</v>
+        <v>13882269</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4844,47 +4844,47 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD0082</t>
+          <t>ORD010082</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST8946</t>
+          <t>CUST4521</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>41680156</v>
+        <v>36528878</v>
       </c>
       <c r="E83" t="n">
-        <v>10700323</v>
+        <v>10368194</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,51 +4898,51 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD0083</t>
+          <t>ORD010083</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST1137</t>
+          <t>CUST8539</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>46252408</v>
+        <v>44634090</v>
       </c>
       <c r="E84" t="n">
-        <v>13579594</v>
+        <v>15615658</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4962,37 +4962,37 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD0084</t>
+          <t>ORD010084</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST3690</t>
+          <t>CUST8282</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>31028315</v>
+        <v>53526561</v>
       </c>
       <c r="E85" t="n">
-        <v>4061378</v>
+        <v>15440209</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5016,41 +5016,41 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD0085</t>
+          <t>ORD010085</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST1888</t>
+          <t>CUST7954</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>16143238</v>
+        <v>48660764</v>
       </c>
       <c r="E86" t="n">
-        <v>2690380</v>
+        <v>15654254</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,51 +5060,51 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD0086</t>
+          <t>ORD010086</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST6829</t>
+          <t>CUST5747</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>34343278</v>
+        <v>40245377</v>
       </c>
       <c r="E87" t="n">
-        <v>6082204</v>
+        <v>12817488</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,47 +5114,47 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD0087</t>
+          <t>ORD010087</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST1746</t>
+          <t>CUST9615</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>20152505</v>
+        <v>42415894</v>
       </c>
       <c r="E88" t="n">
-        <v>3244336</v>
+        <v>14571796</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,51 +5168,51 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD0088</t>
+          <t>ORD010088</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST8790</t>
+          <t>CUST2588</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>14859223</v>
+        <v>38927661</v>
       </c>
       <c r="E89" t="n">
-        <v>1824658</v>
+        <v>11216100</v>
       </c>
       <c r="F89" t="n">
         <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,47 +5222,47 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD0089</t>
+          <t>ORD010089</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST4799</t>
+          <t>CUST7954</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>35780112</v>
+        <v>51278989</v>
       </c>
       <c r="E90" t="n">
-        <v>10079226</v>
+        <v>15491029</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,47 +5276,47 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD0090</t>
+          <t>ORD010090</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST1602</t>
+          <t>CUST9372</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10533988</v>
+        <v>33293015</v>
       </c>
       <c r="E91" t="n">
-        <v>1208065</v>
+        <v>10149651</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,47 +5330,47 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD0091</t>
+          <t>ORD010091</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CUST2157</t>
+          <t>CUST5145</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>28399999</v>
+        <v>37542521</v>
       </c>
       <c r="E92" t="n">
-        <v>6874255</v>
+        <v>11530666</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5401,7 +5401,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD0092</t>
+          <t>ORD010092</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5411,20 +5411,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CUST6655</t>
+          <t>CUST5767</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>41235784</v>
+        <v>52604557</v>
       </c>
       <c r="E93" t="n">
-        <v>8715098</v>
+        <v>13585870</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5448,41 +5448,41 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD0093</t>
+          <t>ORD010093</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CUST7556</t>
+          <t>CUST2085</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>21466797</v>
+        <v>50526816</v>
       </c>
       <c r="E94" t="n">
-        <v>3626690</v>
+        <v>14991409</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5502,37 +5502,37 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD0094</t>
+          <t>ORD010094</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CUST2551</t>
+          <t>CUST2266</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>37253213</v>
+        <v>58040553</v>
       </c>
       <c r="E95" t="n">
-        <v>7272225</v>
+        <v>16748906</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -5546,51 +5546,51 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD0095</t>
+          <t>ORD010095</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CUST9148</t>
+          <t>CUST3079</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>35748577</v>
+        <v>51148251</v>
       </c>
       <c r="E96" t="n">
-        <v>4118368</v>
+        <v>16450808</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5600,12 +5600,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5617,30 +5617,30 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD0096</t>
+          <t>ORD010096</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CUST5472</t>
+          <t>CUST3007</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>35468036</v>
+        <v>33003538</v>
       </c>
       <c r="E97" t="n">
-        <v>9107945</v>
+        <v>8853286</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5664,41 +5664,41 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD0097</t>
+          <t>ORD010097</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CUST9771</t>
+          <t>CUST9372</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>14678998</v>
+        <v>46796413</v>
       </c>
       <c r="E98" t="n">
-        <v>3283517</v>
+        <v>11746861</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5713,46 +5713,46 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD0098</t>
+          <t>ORD010098</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CUST2069</t>
+          <t>CUST7279</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>32770239</v>
+        <v>47510453</v>
       </c>
       <c r="E99" t="n">
-        <v>7586363</v>
+        <v>12962657</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5762,51 +5762,51 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD0099</t>
+          <t>ORD010099</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CUST2512</t>
+          <t>CUST4910</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>21375106</v>
+        <v>43461869</v>
       </c>
       <c r="E100" t="n">
-        <v>2755840</v>
+        <v>14788660</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5816,24 +5816,24 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD0100</t>
+          <t>ORD010100</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5843,20 +5843,20 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUST3592</t>
+          <t>CUST9791</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>36322226</v>
+        <v>49426287</v>
       </c>
       <c r="E101" t="n">
-        <v>5696216</v>
+        <v>16691306</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -5870,17 +5870,1097 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ORD010101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CUST9619</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>49906085</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15739632</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>161</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
           <t>Software</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ORD010102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>CUST3746</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>44380237</v>
+      </c>
+      <c r="E103" t="n">
+        <v>12968213</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>21</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>Credit Card</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ORD010103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>CUST7273</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>35573582</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12165368</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>118</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ORD010104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CUST2085</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>36928369</v>
+      </c>
+      <c r="E105" t="n">
+        <v>11762441</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>73</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ORD010105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CUST4204</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>34428983</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8858584</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>17</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ORD010106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CUST8271</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>55324950</v>
+      </c>
+      <c r="E107" t="n">
+        <v>16478383</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ORD010107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CUST8271</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>52305746</v>
+      </c>
+      <c r="E108" t="n">
+        <v>17093863</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ORD010108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CUST4746</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>32413827</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10815740</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>55</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ORD010109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CUST7954</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>35922773</v>
+      </c>
+      <c r="E110" t="n">
+        <v>11992552</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>71</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ORD010110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CUST7793</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>37041540</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10676859</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>26</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ORD010111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CUST9993</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>36289686</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10512061</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>55</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Electronics</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ORD010112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CUST2588</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>55161374</v>
+      </c>
+      <c r="E113" t="n">
+        <v>18102591</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>30</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ORD010113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CUST4521</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>43001705</v>
+      </c>
+      <c r="E114" t="n">
+        <v>11964071</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>146</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ORD010114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CUST8282</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>56544192</v>
+      </c>
+      <c r="E115" t="n">
+        <v>17285934</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>15</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ORD010115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CUST9993</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>56917993</v>
+      </c>
+      <c r="E116" t="n">
+        <v>16196458</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>13</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ORD010116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CUST8445</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>55288657</v>
+      </c>
+      <c r="E117" t="n">
+        <v>14373226</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>50</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ORD010117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CUST7954</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>47690669</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15791542</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" t="n">
+        <v>37</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Furniture</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ORD010118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CUST8282</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>34622005</v>
+      </c>
+      <c r="E119" t="n">
+        <v>11902336</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>50</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Installment</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ORD010119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CUST9372</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>35634035</v>
+      </c>
+      <c r="E120" t="n">
+        <v>11464509</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2</v>
+      </c>
+      <c r="G120" t="n">
+        <v>48</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Office Supplies</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ORD010120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CUST4865</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>57990315</v>
+      </c>
+      <c r="E121" t="n">
+        <v>19686659</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="n">
+        <v>19</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Giang</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Bank Transfer</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5895,7 +6975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5937,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>104085867</v>
+        <v>3531060</v>
       </c>
       <c r="E2" t="n">
-        <v>15640115</v>
+        <v>661282</v>
       </c>
     </row>
     <row r="3">
@@ -5956,16 +7036,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>143169678</v>
+        <v>6610156</v>
       </c>
       <c r="E3" t="n">
-        <v>29930215</v>
+        <v>1444768</v>
       </c>
     </row>
     <row r="4">
@@ -5975,7 +7055,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5994,16 +7074,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>124355724</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23080977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6013,16 +7093,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>106963123</v>
+        <v>4769079</v>
       </c>
       <c r="E6" t="n">
-        <v>19670828</v>
+        <v>1145481</v>
       </c>
     </row>
     <row r="7">
@@ -6032,16 +7112,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>61044609</v>
+        <v>9233360</v>
       </c>
       <c r="E7" t="n">
-        <v>15479132</v>
+        <v>968257</v>
       </c>
     </row>
     <row r="8">
@@ -6051,16 +7131,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>94.7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>93653552</v>
+        <v>12676032</v>
       </c>
       <c r="E8" t="n">
-        <v>15768619</v>
+        <v>2301835</v>
       </c>
     </row>
     <row r="9">
@@ -6070,16 +7150,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>95.7</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>94519449</v>
+        <v>11766348</v>
       </c>
       <c r="E9" t="n">
-        <v>20274933</v>
+        <v>2642599</v>
       </c>
     </row>
     <row r="10">
@@ -6089,16 +7169,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>90.8</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>116396657</v>
+        <v>3487970</v>
       </c>
       <c r="E10" t="n">
-        <v>21108462</v>
+        <v>918844</v>
       </c>
     </row>
     <row r="11">
@@ -6108,16 +7188,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>203968236</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>41177462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6127,16 +7207,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>132558246</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>22854656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6146,16 +7226,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>28536645</v>
+        <v>7139363</v>
       </c>
       <c r="E13" t="n">
-        <v>6970303</v>
+        <v>993076</v>
       </c>
     </row>
     <row r="14">
@@ -6165,16 +7245,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>93.2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>45636861</v>
+        <v>15418977</v>
       </c>
       <c r="E14" t="n">
-        <v>10049633</v>
+        <v>4173328</v>
       </c>
     </row>
     <row r="15">
@@ -6184,16 +7264,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>91.8</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>101235280</v>
+        <v>7398149</v>
       </c>
       <c r="E15" t="n">
-        <v>19281669</v>
+        <v>1852180</v>
       </c>
     </row>
     <row r="16">
@@ -6203,16 +7283,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>112026985</v>
+        <v>15496018</v>
       </c>
       <c r="E16" t="n">
-        <v>19467234</v>
+        <v>3388932</v>
       </c>
     </row>
     <row r="17">
@@ -6222,16 +7302,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>34308703</v>
+        <v>7420862</v>
       </c>
       <c r="E17" t="n">
-        <v>5041362</v>
+        <v>1827090</v>
       </c>
     </row>
     <row r="18">
@@ -6241,16 +7321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>123372357</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25917387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6260,16 +7340,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33718891</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6890043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6279,16 +7359,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>139342563</v>
+        <v>5943559</v>
       </c>
       <c r="E20" t="n">
-        <v>28292070</v>
+        <v>1371665</v>
       </c>
     </row>
     <row r="21">
@@ -6298,16 +7378,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>131590786</v>
+        <v>8501307</v>
       </c>
       <c r="E21" t="n">
-        <v>30280681</v>
+        <v>1517870</v>
       </c>
     </row>
     <row r="22">
@@ -6317,16 +7397,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>54193428</v>
+        <v>16653630</v>
       </c>
       <c r="E22" t="n">
-        <v>12803173</v>
+        <v>4129579</v>
       </c>
     </row>
     <row r="23">
@@ -6336,16 +7416,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>135550848</v>
+        <v>9183123</v>
       </c>
       <c r="E23" t="n">
-        <v>26293241</v>
+        <v>2451870</v>
       </c>
     </row>
     <row r="24">
@@ -6355,16 +7435,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>90.8</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>139392107</v>
+        <v>4754177</v>
       </c>
       <c r="E24" t="n">
-        <v>31535186</v>
+        <v>1046315</v>
       </c>
     </row>
     <row r="25">
@@ -6374,16 +7454,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100</v>
+        <v>83.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>133422266</v>
+        <v>3004567</v>
       </c>
       <c r="E25" t="n">
-        <v>25812394</v>
+        <v>487527</v>
       </c>
     </row>
     <row r="26">
@@ -6393,16 +7473,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>59112279</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>14274842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6412,16 +7492,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>72456539</v>
+        <v>9710761</v>
       </c>
       <c r="E27" t="n">
-        <v>14549718</v>
+        <v>1981867</v>
       </c>
     </row>
     <row r="28">
@@ -6431,16 +7511,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>191949640</v>
+        <v>10504963</v>
       </c>
       <c r="E28" t="n">
-        <v>31104510</v>
+        <v>2361418</v>
       </c>
     </row>
     <row r="29">
@@ -6450,16 +7530,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>77.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>80068760</v>
+        <v>2622434</v>
       </c>
       <c r="E29" t="n">
-        <v>18653654</v>
+        <v>341959</v>
       </c>
     </row>
     <row r="30">
@@ -6469,16 +7549,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>62682702</v>
+        <v>20907634</v>
       </c>
       <c r="E30" t="n">
-        <v>10670178</v>
+        <v>6063003</v>
       </c>
     </row>
     <row r="31">
@@ -6488,16 +7568,35 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>85466798</v>
+        <v>9747797</v>
       </c>
       <c r="E31" t="n">
-        <v>14586533</v>
+        <v>2264453</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
